--- a/物通玉米报价_交割成本.xlsx
+++ b/物通玉米报价_交割成本.xlsx
@@ -1234,7 +1234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1556,7 +1556,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,15 +1571,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1587,6 +1584,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1621,6 +1621,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1776,22 +1779,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-4.1571626784440548E-2</c:v>
+                  <c:v>5.0042852686696749E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.6757421231784553E-2</c:v>
+                  <c:v>3.2541832331778028E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1968744208428308E-2</c:v>
+                  <c:v>6.0031925410631515E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7944702167472298E-3</c:v>
+                  <c:v>8.7474687062007658E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7532287748020865E-2</c:v>
+                  <c:v>0.11487023942101944</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2244773863805885E-2</c:v>
+                  <c:v>0.14221870420292743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,11 +1810,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="401559584"/>
-        <c:axId val="401549248"/>
+        <c:axId val="-1930291584"/>
+        <c:axId val="-1930286688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401559584"/>
+        <c:axId val="-1930291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1857,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401549248"/>
+        <c:crossAx val="-1930286688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1862,7 +1865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401549248"/>
+        <c:axId val="-1930286688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1916,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401559584"/>
+        <c:crossAx val="-1930291584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3087,7 +3090,7 @@
       <c r="F1" s="110"/>
       <c r="G1" s="111">
         <f ca="1">TODAY()</f>
-        <v>43728</v>
+        <v>43777</v>
       </c>
       <c r="H1" s="111"/>
     </row>
@@ -4657,7 +4660,7 @@
       </c>
       <c r="D1" s="61">
         <f ca="1">TODAY()</f>
-        <v>43728</v>
+        <v>43777</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>116</v>
@@ -4673,9 +4676,9 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="135">
+      <c r="A2" s="134">
         <f ca="1">TODAY()</f>
-        <v>43728</v>
+        <v>43777</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>122</v>
@@ -4698,7 +4701,7 @@
       <c r="H2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="131" t="s">
         <v>107</v>
       </c>
       <c r="J2" s="45"/>
@@ -4722,7 +4725,7 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="135"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="70" t="s">
         <v>49</v>
       </c>
@@ -4731,8 +4734,8 @@
       <c r="E3" s="68"/>
       <c r="F3" s="72"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="133"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="132"/>
       <c r="J3" s="59" t="s">
         <v>49</v>
       </c>
@@ -4751,10 +4754,10 @@
       <c r="O3" s="59">
         <v>1260</v>
       </c>
-      <c r="P3" s="129"/>
+      <c r="P3" s="125"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="135"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="70" t="s">
         <v>101</v>
       </c>
@@ -4773,8 +4776,8 @@
       <c r="G4" s="68">
         <v>1828</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="134"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="59" t="s">
         <v>101</v>
       </c>
@@ -4793,10 +4796,10 @@
       <c r="O4" s="59">
         <v>1570</v>
       </c>
-      <c r="P4" s="131"/>
+      <c r="P4" s="126"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="135" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="70" t="s">
@@ -4818,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="64"/>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="125" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="65" t="s">
@@ -4842,7 +4845,7 @@
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="125"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="70" t="s">
         <v>65</v>
       </c>
@@ -4866,7 +4869,7 @@
         <f>3+50</f>
         <v>53</v>
       </c>
-      <c r="H6" s="126"/>
+      <c r="H6" s="127"/>
       <c r="I6" s="130"/>
       <c r="J6" s="59" t="s">
         <v>65</v>
@@ -4891,12 +4894,12 @@
         <f>50+5+6.7+5</f>
         <v>66.7</v>
       </c>
-      <c r="P6" s="126" t="s">
+      <c r="P6" s="127" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="125"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="70" t="s">
         <v>66</v>
       </c>
@@ -4915,7 +4918,7 @@
       <c r="G7" s="68">
         <v>130</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="128"/>
       <c r="I7" s="130"/>
       <c r="J7" s="59" t="s">
         <v>66</v>
@@ -4935,10 +4938,10 @@
       <c r="O7" s="59">
         <v>130</v>
       </c>
-      <c r="P7" s="127"/>
+      <c r="P7" s="128"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="125"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="48" t="s">
         <v>64</v>
       </c>
@@ -4962,7 +4965,7 @@
         <f>G4+G6+G7+G5</f>
         <v>2026</v>
       </c>
-      <c r="H8" s="128"/>
+      <c r="H8" s="129"/>
       <c r="I8" s="130"/>
       <c r="J8" s="48" t="s">
         <v>64</v>
@@ -4987,10 +4990,10 @@
         <f>O4+O6+O7+O5</f>
         <v>1781.7</v>
       </c>
-      <c r="P8" s="128"/>
+      <c r="P8" s="129"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="125"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="70" t="s">
         <v>67</v>
       </c>
@@ -5013,7 +5016,7 @@
         <f>3+20+8.4+50</f>
         <v>81.400000000000006</v>
       </c>
-      <c r="H9" s="126"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="130"/>
       <c r="J9" s="59" t="s">
         <v>67</v>
@@ -5038,12 +5041,12 @@
         <f>50+27</f>
         <v>77</v>
       </c>
-      <c r="P9" s="126" t="s">
+      <c r="P9" s="127" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="125"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="70" t="s">
         <v>68</v>
       </c>
@@ -5062,7 +5065,7 @@
       <c r="G10" s="70">
         <v>75</v>
       </c>
-      <c r="H10" s="127"/>
+      <c r="H10" s="128"/>
       <c r="I10" s="130"/>
       <c r="J10" s="59" t="s">
         <v>68</v>
@@ -5082,10 +5085,10 @@
       <c r="O10" s="60">
         <v>80</v>
       </c>
-      <c r="P10" s="127"/>
+      <c r="P10" s="128"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="125"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="48" t="s">
         <v>69</v>
       </c>
@@ -5109,7 +5112,7 @@
         <f>G4+G9+G10+G5</f>
         <v>1999.4</v>
       </c>
-      <c r="H11" s="128"/>
+      <c r="H11" s="129"/>
       <c r="I11" s="130"/>
       <c r="J11" s="48" t="s">
         <v>69</v>
@@ -5134,10 +5137,10 @@
         <f>O4+O9+O10+O5</f>
         <v>1742</v>
       </c>
-      <c r="P11" s="128"/>
+      <c r="P11" s="129"/>
     </row>
     <row r="12" spans="1:16" ht="33">
-      <c r="A12" s="125"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="49" t="s">
         <v>62</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>1745</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="131"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="49" t="s">
         <v>62</v>
       </c>
@@ -5186,7 +5189,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="135" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="70" t="s">
@@ -5207,8 +5210,8 @@
       <c r="G13" s="70">
         <v>4</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="125" t="s">
+      <c r="H13" s="127"/>
+      <c r="I13" s="135" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="59" t="s">
@@ -5229,12 +5232,12 @@
       <c r="O13" s="59">
         <v>4</v>
       </c>
-      <c r="P13" s="126" t="s">
+      <c r="P13" s="127" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="125"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="70" t="s">
         <v>53</v>
       </c>
@@ -5253,8 +5256,8 @@
       <c r="G14" s="70">
         <v>5</v>
       </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="125"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="135"/>
       <c r="J14" s="59" t="s">
         <v>53</v>
       </c>
@@ -5273,35 +5276,35 @@
       <c r="O14" s="59">
         <v>5</v>
       </c>
-      <c r="P14" s="127"/>
+      <c r="P14" s="128"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="125"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="70" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="50">
         <f ca="1">C4*0.1*($C$1-$D$1)/365</f>
-        <v>-62.799452054794529</v>
+        <v>-85.097808219178091</v>
       </c>
       <c r="D15" s="50">
         <f ca="1">D4*0.1*($C$1-$D$1)/365</f>
-        <v>-69.68054794520549</v>
+        <v>-94.422191780821919</v>
       </c>
       <c r="E15" s="50">
         <f ca="1">E4*0.1*($C$1-$D$1)/365</f>
-        <v>-67.676712328767124</v>
+        <v>-91.706849315068496</v>
       </c>
       <c r="F15" s="50">
         <f ca="1">F4*0.1*($C$1-$D$1)/365</f>
-        <v>-65.975342465753428</v>
+        <v>-89.401369863013699</v>
       </c>
       <c r="G15" s="50">
         <f ca="1">G4*0.1*($C$1-$D$1)/365</f>
-        <v>-69.113424657534253</v>
-      </c>
-      <c r="H15" s="127"/>
-      <c r="I15" s="125"/>
+        <v>-93.653698630136986</v>
+      </c>
+      <c r="H15" s="128"/>
+      <c r="I15" s="135"/>
       <c r="J15" s="59" t="s">
         <v>70</v>
       </c>
@@ -5325,35 +5328,35 @@
         <f>O4*0.1*2.5/12</f>
         <v>32.708333333333336</v>
       </c>
-      <c r="P15" s="127"/>
+      <c r="P15" s="128"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="125"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="70" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="50">
         <f ca="1">C26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="D16" s="50">
         <f ca="1">D26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="E16" s="50">
         <f ca="1">E26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="F16" s="50">
         <f ca="1">F26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="G16" s="50">
         <f ca="1">G26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
-      </c>
-      <c r="H16" s="127"/>
-      <c r="I16" s="125"/>
+        <v>-18.505315068493154</v>
+      </c>
+      <c r="H16" s="128"/>
+      <c r="I16" s="135"/>
       <c r="J16" s="59" t="s">
         <v>71</v>
       </c>
@@ -5377,35 +5380,35 @@
         <f>O26*0.2*0.1*2.5/12</f>
         <v>7.791666666666667</v>
       </c>
-      <c r="P16" s="127"/>
+      <c r="P16" s="128"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="125"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="50">
         <f ca="1">SUM(C13:C16)</f>
-        <v>-67.455780821917813</v>
+        <v>-94.603123287671252</v>
       </c>
       <c r="D17" s="50">
         <f ca="1">SUM(D13:D16)</f>
-        <v>-74.336876712328774</v>
+        <v>-103.92750684931508</v>
       </c>
       <c r="E17" s="50">
         <f ca="1">SUM(E13:E16)</f>
-        <v>-72.333041095890408</v>
+        <v>-101.21216438356166</v>
       </c>
       <c r="F17" s="50">
         <f ca="1">SUM(F13:F16)</f>
-        <v>-70.631671232876712</v>
+        <v>-98.906684931506845</v>
       </c>
       <c r="G17" s="50">
         <f ca="1">SUM(G13:G16)</f>
-        <v>-73.769753424657537</v>
-      </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="125"/>
+        <v>-103.15901369863013</v>
+      </c>
+      <c r="H17" s="129"/>
+      <c r="I17" s="135"/>
       <c r="J17" s="59" t="s">
         <v>54</v>
       </c>
@@ -5429,10 +5432,10 @@
         <f>SUM(O13:O16)</f>
         <v>49.5</v>
       </c>
-      <c r="P17" s="128"/>
+      <c r="P17" s="129"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="135" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="70" t="s">
@@ -5453,8 +5456,8 @@
       <c r="G18" s="70">
         <v>15</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="125" t="s">
+      <c r="H18" s="125"/>
+      <c r="I18" s="135" t="s">
         <v>61</v>
       </c>
       <c r="J18" s="59" t="s">
@@ -5475,10 +5478,10 @@
       <c r="O18" s="59">
         <v>15</v>
       </c>
-      <c r="P18" s="129"/>
+      <c r="P18" s="125"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="125"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="70" t="s">
         <v>63</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="130"/>
-      <c r="I19" s="125"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="59" t="s">
         <v>63</v>
       </c>
@@ -5520,7 +5523,7 @@
       <c r="P19" s="130"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="125"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="70" t="s">
         <v>55</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="130"/>
-      <c r="I20" s="125"/>
+      <c r="I20" s="135"/>
       <c r="J20" s="59" t="s">
         <v>55</v>
       </c>
@@ -5562,7 +5565,7 @@
       <c r="P20" s="130"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="125"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="70" t="s">
         <v>56</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="130"/>
-      <c r="I21" s="125"/>
+      <c r="I21" s="135"/>
       <c r="J21" s="59" t="s">
         <v>56</v>
       </c>
@@ -5604,7 +5607,7 @@
       <c r="P21" s="130"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="125"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="70" t="s">
         <v>57</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>0.15</v>
       </c>
       <c r="H22" s="130"/>
-      <c r="I22" s="125"/>
+      <c r="I22" s="135"/>
       <c r="J22" s="59" t="s">
         <v>57</v>
       </c>
@@ -5646,7 +5649,7 @@
       <c r="P22" s="130"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="125"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="70" t="s">
         <v>58</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>22.15</v>
       </c>
       <c r="H23" s="130"/>
-      <c r="I23" s="125"/>
+      <c r="I23" s="135"/>
       <c r="J23" s="59" t="s">
         <v>58</v>
       </c>
@@ -5698,32 +5701,32 @@
       <c r="P23" s="130"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="125"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="52">
         <f ca="1">C23+C17+C8</f>
-        <v>1833.6942191780822</v>
+        <v>1806.5468767123289</v>
       </c>
       <c r="D24" s="52">
         <f ca="1">D23+D17+D8</f>
-        <v>1949.3131232876713</v>
+        <v>1919.7224931506848</v>
       </c>
       <c r="E24" s="52">
         <f ca="1">E23+E17+E8</f>
-        <v>1968.3169589041097</v>
+        <v>1939.4378356164384</v>
       </c>
       <c r="F24" s="52">
         <f ca="1">F23+F17+F8</f>
-        <v>1917.5183287671232</v>
+        <v>1889.2433150684931</v>
       </c>
       <c r="G24" s="52">
         <f ca="1">G23+G17+G8</f>
-        <v>1974.3802465753424</v>
+        <v>1944.99098630137</v>
       </c>
       <c r="H24" s="130"/>
-      <c r="I24" s="125"/>
+      <c r="I24" s="135"/>
       <c r="J24" s="51" t="s">
         <v>73</v>
       </c>
@@ -5750,32 +5753,32 @@
       <c r="P24" s="130"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="125"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="52">
         <f ca="1">C11+C17+C23+5</f>
-        <v>1853.6942191780822</v>
+        <v>1826.5468767123289</v>
       </c>
       <c r="D25" s="52">
         <f ca="1">D11+D17+D23+5</f>
-        <v>1896.8131232876713</v>
+        <v>1867.2224931506851</v>
       </c>
       <c r="E25" s="52">
         <f ca="1">E11+E17+E23+5</f>
-        <v>1972.8169589041097</v>
+        <v>1943.9378356164384</v>
       </c>
       <c r="F25" s="52">
         <f ca="1">F11+F17+F23+5</f>
-        <v>1880.9183287671235</v>
+        <v>1852.6433150684934</v>
       </c>
       <c r="G25" s="52">
         <f ca="1">G11+G17+G23+5</f>
-        <v>1952.7802465753427</v>
+        <v>1923.39098630137</v>
       </c>
       <c r="H25" s="130"/>
-      <c r="I25" s="125"/>
+      <c r="I25" s="135"/>
       <c r="J25" s="51" t="s">
         <v>74</v>
       </c>
@@ -5802,7 +5805,7 @@
       <c r="P25" s="130"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="125"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="53" t="s">
         <v>59</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>1806</v>
       </c>
       <c r="H26" s="130"/>
-      <c r="I26" s="125"/>
+      <c r="I26" s="135"/>
       <c r="J26" s="53" t="s">
         <v>59</v>
       </c>
@@ -5849,32 +5852,32 @@
       <c r="P26" s="130"/>
     </row>
     <row r="27" spans="1:16" ht="21">
-      <c r="A27" s="125"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="54" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="55">
         <f ca="1">C26-C25</f>
-        <v>-47.694219178082221</v>
+        <v>-20.546876712328867</v>
       </c>
       <c r="D27" s="55">
         <f ca="1">D26-D25</f>
-        <v>-90.81312328767126</v>
+        <v>-61.222493150685068</v>
       </c>
       <c r="E27" s="55">
         <f ca="1">E26-E25</f>
-        <v>-166.8169589041097</v>
+        <v>-137.93783561643841</v>
       </c>
       <c r="F27" s="55">
         <f ca="1">F26-F25</f>
-        <v>-74.918328767123512</v>
+        <v>-46.643315068493393</v>
       </c>
       <c r="G27" s="55">
         <f ca="1">G26-G25</f>
-        <v>-146.78024657534274</v>
-      </c>
-      <c r="H27" s="131"/>
-      <c r="I27" s="125"/>
+        <v>-117.39098630137005</v>
+      </c>
+      <c r="H27" s="126"/>
+      <c r="I27" s="135"/>
       <c r="J27" s="54" t="s">
         <v>60</v>
       </c>
@@ -5898,7 +5901,7 @@
         <f>O26-O24</f>
         <v>16.649999999999864</v>
       </c>
-      <c r="P27" s="131"/>
+      <c r="P27" s="126"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="56" t="s">
@@ -5916,9 +5919,9 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="132">
+      <c r="A31" s="131">
         <f ca="1">TODAY()</f>
-        <v>43728</v>
+        <v>43777</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="62" t="s">
@@ -5939,7 +5942,7 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="133"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="9" t="s">
         <v>79</v>
       </c>
@@ -5958,12 +5961,12 @@
       <c r="G32" s="9">
         <v>1260</v>
       </c>
-      <c r="H32" s="129" t="s">
+      <c r="H32" s="125" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="134"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -5982,10 +5985,10 @@
       <c r="G33" s="9">
         <v>1570</v>
       </c>
-      <c r="H33" s="131"/>
+      <c r="H33" s="126"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A34" s="129" t="s">
+      <c r="A34" s="125" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -6010,7 +6013,7 @@
       <c r="G34" s="9">
         <v>20</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="127" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6034,7 +6037,7 @@
       <c r="G35" s="9">
         <v>150</v>
       </c>
-      <c r="H35" s="127"/>
+      <c r="H35" s="128"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="130"/>
@@ -6056,7 +6059,7 @@
       <c r="G36" s="9">
         <v>15</v>
       </c>
-      <c r="H36" s="127"/>
+      <c r="H36" s="128"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="130"/>
@@ -6083,10 +6086,10 @@
         <f>G33+G34+G35+G36</f>
         <v>1755</v>
       </c>
-      <c r="H37" s="128"/>
+      <c r="H37" s="129"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="131"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="49" t="s">
         <v>99</v>
       </c>
@@ -6115,7 +6118,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="125" t="s">
         <v>96</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -6136,7 +6139,7 @@
       <c r="G39" s="9">
         <v>4</v>
       </c>
-      <c r="H39" s="126" t="s">
+      <c r="H39" s="127" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6160,7 +6163,7 @@
       <c r="G40" s="9">
         <v>5</v>
       </c>
-      <c r="H40" s="127"/>
+      <c r="H40" s="128"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="130"/>
@@ -6169,25 +6172,25 @@
       </c>
       <c r="C41" s="50">
         <f ca="1">C33*0.1*($C$1-$D$1)/365</f>
-        <v>-62.38356164383562</v>
+        <v>-84.534246575342465</v>
       </c>
       <c r="D41" s="50">
         <f ca="1">D33*0.1*($C$1-$D$1)/365</f>
-        <v>-67.449863013698632</v>
+        <v>-91.399452054794523</v>
       </c>
       <c r="E41" s="50">
         <f ca="1">E33*0.1*($C$1-$D$1)/365</f>
-        <v>-64.652054794520552</v>
+        <v>-87.608219178082194</v>
       </c>
       <c r="F41" s="50">
         <f ca="1">F33*0.1*($C$1-$D$1)/365</f>
-        <v>-65.408219178082192</v>
+        <v>-88.632876712328766</v>
       </c>
       <c r="G41" s="50">
         <f ca="1">G33*0.1*($C$1-$D$1)/365</f>
-        <v>-59.358904109589041</v>
-      </c>
-      <c r="H41" s="127"/>
+        <v>-80.435616438356163</v>
+      </c>
+      <c r="H41" s="128"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="130"/>
@@ -6196,55 +6199,55 @@
       </c>
       <c r="C42" s="50">
         <f ca="1">C51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="D42" s="50">
         <f ca="1">D51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="E42" s="50">
         <f ca="1">E51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="F42" s="50">
         <f ca="1">F51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
+        <v>-18.505315068493154</v>
       </c>
       <c r="G42" s="50">
         <f ca="1">G51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-13.65632876712329</v>
-      </c>
-      <c r="H42" s="127"/>
+        <v>-18.505315068493154</v>
+      </c>
+      <c r="H42" s="128"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="131"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="50">
         <f ca="1">SUM(C39:C42)</f>
-        <v>-67.039890410958904</v>
+        <v>-94.039561643835611</v>
       </c>
       <c r="D43" s="50">
         <f ca="1">SUM(D39:D42)</f>
-        <v>-72.106191780821916</v>
+        <v>-100.90476712328768</v>
       </c>
       <c r="E43" s="50">
         <f ca="1">SUM(E39:E42)</f>
-        <v>-69.308383561643836</v>
+        <v>-97.113534246575341</v>
       </c>
       <c r="F43" s="50">
         <f ca="1">SUM(F39:F42)</f>
-        <v>-70.064547945205476</v>
+        <v>-98.138191780821927</v>
       </c>
       <c r="G43" s="50">
         <f ca="1">SUM(G39:G42)</f>
-        <v>-64.015232876712332</v>
-      </c>
-      <c r="H43" s="128"/>
+        <v>-89.940931506849324</v>
+      </c>
+      <c r="H43" s="129"/>
     </row>
     <row r="44" spans="1:8" hidden="1">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="125" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -6265,7 +6268,7 @@
       <c r="G44" s="9">
         <v>20</v>
       </c>
-      <c r="H44" s="129"/>
+      <c r="H44" s="125"/>
     </row>
     <row r="45" spans="1:8" hidden="1">
       <c r="A45" s="130"/>
@@ -6389,23 +6392,23 @@
       </c>
       <c r="C50" s="52">
         <f ca="1">C37+C43+C49</f>
-        <v>1797.1601095890412</v>
+        <v>1770.1604383561644</v>
       </c>
       <c r="D50" s="52">
         <f ca="1">D37+D43+D49</f>
-        <v>1864.5938082191781</v>
+        <v>1835.7952328767124</v>
       </c>
       <c r="E50" s="52">
         <f ca="1">E37+E43+E49</f>
-        <v>1895.8916164383561</v>
+        <v>1868.0864657534246</v>
       </c>
       <c r="F50" s="52">
         <f ca="1">F37+F43+F49</f>
-        <v>1866.5354520547946</v>
+        <v>1838.4618082191782</v>
       </c>
       <c r="G50" s="52">
         <f ca="1">G37+G43+G49</f>
-        <v>1718.1847671232877</v>
+        <v>1692.2590684931508</v>
       </c>
       <c r="H50" s="130"/>
     </row>
@@ -6437,42 +6440,43 @@
       <c r="H51" s="130"/>
     </row>
     <row r="52" spans="1:8" ht="21">
-      <c r="A52" s="131"/>
+      <c r="A52" s="126"/>
       <c r="B52" s="54" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="55">
         <f ca="1">C51-C50</f>
-        <v>8.8398904109587875</v>
+        <v>35.839561643835623</v>
       </c>
       <c r="D52" s="55">
         <f ca="1">D51-D50</f>
-        <v>-58.593808219178072</v>
+        <v>-29.795232876712362</v>
       </c>
       <c r="E52" s="55">
         <f ca="1">E51-E50</f>
-        <v>-89.891616438356095</v>
+        <v>-62.086465753424591</v>
       </c>
       <c r="F52" s="55">
         <f ca="1">F51-F50</f>
-        <v>-60.535452054794632</v>
+        <v>-32.461808219178238</v>
       </c>
       <c r="G52" s="55">
         <f ca="1">G51-G50</f>
-        <v>87.815232876712344</v>
-      </c>
-      <c r="H52" s="131"/>
+        <v>113.74093150684917</v>
+      </c>
+      <c r="H52" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="I18:I27"/>
+    <mergeCell ref="P18:P27"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="I5:I12"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="H18:H27"/>
@@ -6482,15 +6486,14 @@
     <mergeCell ref="A18:A27"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A5:A12"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="I18:I27"/>
-    <mergeCell ref="P18:P27"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="I5:I12"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6502,8 +6505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6537,11 +6540,11 @@
       </c>
       <c r="B3" s="74">
         <f ca="1">MIN(B7-B6-5,MAX(20,(B7-B6)/2))</f>
-        <v>53</v>
+        <v>28.5</v>
       </c>
       <c r="C3" s="10">
         <f ca="1">MIN(C7-B6-5,MAX(20,(C7-B6)/2))</f>
-        <v>113.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6558,11 +6561,11 @@
       </c>
       <c r="B5" s="74">
         <f ca="1">B7-B6</f>
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C5" s="10">
         <f ca="1">C7-B6</f>
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="D5" s="73"/>
       <c r="F5" s="73"/>
@@ -6573,7 +6576,7 @@
       </c>
       <c r="B6" s="80">
         <f ca="1">TODAY()+1</f>
-        <v>43729</v>
+        <v>43778</v>
       </c>
       <c r="D6" s="73"/>
       <c r="F6" s="73"/>
@@ -6742,27 +6745,27 @@
       </c>
       <c r="C15" s="19">
         <f ca="1">$B$3*0.2+$B$4*0.5</f>
-        <v>13.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D15" s="19">
         <f t="shared" ref="D15:H15" ca="1" si="2">$B$3*0.2+$B$4*0.5</f>
-        <v>13.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>13.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>13.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>13.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>13.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6796,27 +6799,27 @@
       </c>
       <c r="C17" s="81">
         <f ca="1">SUM(C11:C16)</f>
-        <v>40.14</v>
+        <v>35.24</v>
       </c>
       <c r="D17" s="81">
         <f t="shared" ref="D17:H17" ca="1" si="3">SUM(D11:D16)</f>
-        <v>40.14</v>
+        <v>35.24</v>
       </c>
       <c r="E17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>40.14</v>
+        <v>35.24</v>
       </c>
       <c r="F17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>40.14</v>
+        <v>35.24</v>
       </c>
       <c r="G17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>40.14</v>
+        <v>35.24</v>
       </c>
       <c r="H17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>40.14</v>
+        <v>35.24</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6828,27 +6831,27 @@
       </c>
       <c r="C18" s="77">
         <f ca="1">B9*0.2*$B$2*$B$5/365</f>
-        <v>9.2280986301369872</v>
+        <v>4.962279452054795</v>
       </c>
       <c r="D18" s="77">
         <f t="shared" ref="D18:H18" ca="1" si="4">C9*0.2*$B$2*$B$5/365</f>
-        <v>9.2745643835616445</v>
+        <v>4.9872657534246576</v>
       </c>
       <c r="E18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3210301369863018</v>
+        <v>5.0122520547945211</v>
       </c>
       <c r="F18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3674958904109609</v>
+        <v>5.0372383561643845</v>
       </c>
       <c r="G18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4139616438356182</v>
+        <v>5.0622246575342471</v>
       </c>
       <c r="H18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4604273972602773</v>
+        <v>5.0872109589041106</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6858,27 +6861,27 @@
       </c>
       <c r="C19" s="78">
         <f ca="1">$B$8*$B$2*$B$5/365</f>
-        <v>44.607123287671229</v>
+        <v>23.98684931506849</v>
       </c>
       <c r="D19" s="78">
         <f t="shared" ref="D19:H19" ca="1" si="5">$B$8*$B$2*$B$5/365</f>
-        <v>44.607123287671229</v>
+        <v>23.98684931506849</v>
       </c>
       <c r="E19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>44.607123287671229</v>
+        <v>23.98684931506849</v>
       </c>
       <c r="F19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>44.607123287671229</v>
+        <v>23.98684931506849</v>
       </c>
       <c r="G19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>44.607123287671229</v>
+        <v>23.98684931506849</v>
       </c>
       <c r="H19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>44.607123287671229</v>
+        <v>23.98684931506849</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6888,27 +6891,27 @@
       </c>
       <c r="C20" s="81">
         <f ca="1">SUM(C18:C19)</f>
-        <v>53.835221917808212</v>
+        <v>28.949128767123284</v>
       </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:H20" ca="1" si="6">SUM(D18:D19)</f>
-        <v>53.881687671232875</v>
+        <v>28.974115068493148</v>
       </c>
       <c r="E20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>53.92815342465753</v>
+        <v>28.999101369863013</v>
       </c>
       <c r="F20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>53.974619178082193</v>
+        <v>29.024087671232873</v>
       </c>
       <c r="G20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>54.021084931506849</v>
+        <v>29.049073972602738</v>
       </c>
       <c r="H20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>54.067550684931504</v>
+        <v>29.074060273972599</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6918,27 +6921,27 @@
       <c r="B21" s="143"/>
       <c r="C21" s="81">
         <f ca="1">C20+C17</f>
-        <v>93.975221917808213</v>
+        <v>64.189128767123293</v>
       </c>
       <c r="D21" s="81">
         <f t="shared" ref="D21:H21" ca="1" si="7">D20+D17</f>
-        <v>94.021687671232883</v>
+        <v>64.214115068493157</v>
       </c>
       <c r="E21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>94.068153424657538</v>
+        <v>64.239101369863022</v>
       </c>
       <c r="F21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>94.114619178082194</v>
+        <v>64.264087671232872</v>
       </c>
       <c r="G21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>94.161084931506849</v>
+        <v>64.289073972602736</v>
       </c>
       <c r="H21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>94.207550684931505</v>
+        <v>64.314060273972601</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -6948,27 +6951,27 @@
       <c r="B22" s="144"/>
       <c r="C22" s="77">
         <f ca="1">B9-$B$8-C21</f>
-        <v>-27.975221917808213</v>
+        <v>1.8108712328767069</v>
       </c>
       <c r="D22" s="77">
         <f t="shared" ref="D22:H22" ca="1" si="8">C9-$B$8-D21</f>
-        <v>-18.021687671232883</v>
+        <v>11.785884931506843</v>
       </c>
       <c r="E22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.0681534246575382</v>
+        <v>21.760898630136978</v>
       </c>
       <c r="F22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8853808219178063</v>
+        <v>31.735912328767128</v>
       </c>
       <c r="G22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>11.838915068493151</v>
+        <v>41.710926027397264</v>
       </c>
       <c r="H22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>21.792449315068495</v>
+        <v>51.685939726027399</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -7008,27 +7011,27 @@
       <c r="B24" s="146"/>
       <c r="C24" s="83">
         <f ca="1">C22/C23/$B$5*365</f>
-        <v>-4.1571626784440548E-2</v>
+        <v>5.0042852686696749E-3</v>
       </c>
       <c r="D24" s="83">
         <f t="shared" ref="D24:H24" ca="1" si="10">D22/D23/$B$5*365</f>
-        <v>-2.6757421231784553E-2</v>
+        <v>3.2541832331778028E-2</v>
       </c>
       <c r="E24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.1968744208428308E-2</v>
+        <v>6.0031925410631515E-2</v>
       </c>
       <c r="F24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7944702167472298E-3</v>
+        <v>8.7474687062007658E-2</v>
       </c>
       <c r="G24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7532287748020865E-2</v>
+        <v>0.11487023942101944</v>
       </c>
       <c r="H24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2244773863805885E-2</v>
+        <v>0.14221870420292743</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -7086,10 +7089,10 @@
         <v>162</v>
       </c>
       <c r="B30" s="94">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="C30" s="94">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="J30" s="105" t="s">
         <v>176</v>
@@ -7107,11 +7110,11 @@
       </c>
       <c r="B31" s="99">
         <f ca="1">$B$8*$B$2*$B$5/365</f>
-        <v>44.607123287671229</v>
+        <v>23.98684931506849</v>
       </c>
       <c r="C31" s="99">
         <f ca="1">$B$8*$B$2*$C$5/365</f>
-        <v>95.526575342465748</v>
+        <v>74.906301369863016</v>
       </c>
       <c r="J31" s="105" t="s">
         <v>179</v>
@@ -7129,11 +7132,11 @@
       </c>
       <c r="B32" s="99">
         <f ca="1">B38*0.2*$B$2*$B$5/365</f>
-        <v>8.6008109589041108</v>
+        <v>4.6799342465753426</v>
       </c>
       <c r="C32" s="99">
         <f ca="1">C38*0.2*$B$2*$C$5/365</f>
-        <v>19.115265753424659</v>
+        <v>15.230947945205481</v>
       </c>
       <c r="J32" s="105" t="s">
         <v>180</v>
@@ -7149,11 +7152,11 @@
       </c>
       <c r="B33" s="102">
         <f ca="1">B32+B31</f>
-        <v>53.207934246575341</v>
+        <v>28.666783561643832</v>
       </c>
       <c r="C33" s="102">
         <f ca="1">C32+C31</f>
-        <v>114.64184109589041</v>
+        <v>90.137249315068502</v>
       </c>
       <c r="J33" s="105" t="s">
         <v>177</v>
@@ -7170,11 +7173,11 @@
       </c>
       <c r="B34" s="94">
         <f ca="1">$B$3*0.2+$B$4*0.5</f>
-        <v>13.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C34" s="94">
         <f ca="1">$C$3*0.2+$B$4*0.6</f>
-        <v>25.700000000000003</v>
+        <v>20.8</v>
       </c>
       <c r="J34" s="105" t="s">
         <v>178</v>
@@ -7192,7 +7195,7 @@
       <c r="A35" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="94">
+      <c r="B35" s="147">
         <f>$C$11+$C$12+$C$13+$C$14+$C$16</f>
         <v>27.04</v>
       </c>
@@ -7214,11 +7217,11 @@
       </c>
       <c r="B36" s="101">
         <f ca="1">B35+B34</f>
-        <v>40.14</v>
+        <v>35.239999999999995</v>
       </c>
       <c r="C36" s="97">
         <f ca="1">C35+C34</f>
-        <v>52.74</v>
+        <v>47.84</v>
       </c>
       <c r="J36" s="107"/>
       <c r="K36" s="107"/>
@@ -7230,11 +7233,11 @@
       </c>
       <c r="B37" s="103">
         <f ca="1">B30+B33+B36</f>
-        <v>1943.3479342465755</v>
+        <v>1893.9067835616438</v>
       </c>
       <c r="C37" s="103">
         <f ca="1">C30+C33+C36</f>
-        <v>2017.3818410958904</v>
+        <v>1967.9772493150683</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75">
@@ -7242,10 +7245,10 @@
         <v>169</v>
       </c>
       <c r="B38" s="94">
-        <v>1851</v>
+        <v>1873</v>
       </c>
       <c r="C38" s="94">
-        <v>1921</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75">
@@ -7254,11 +7257,11 @@
       </c>
       <c r="B39" s="103">
         <f ca="1">B38-B37</f>
-        <v>-92.347934246575505</v>
+        <v>-20.906783561643806</v>
       </c>
       <c r="C39" s="103">
         <f ca="1">C38-C37</f>
-        <v>-96.381841095890422</v>
+        <v>-15.97724931506832</v>
       </c>
     </row>
   </sheetData>

--- a/物通玉米报价_交割成本.xlsx
+++ b/物通玉米报价_交割成本.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20180828" sheetId="1" r:id="rId1"/>
     <sheet name="20180828b" sheetId="2" r:id="rId2"/>
     <sheet name="价格计算" sheetId="3" r:id="rId3"/>
-    <sheet name="交割成本计算" sheetId="4" r:id="rId4"/>
+    <sheet name="日报" sheetId="4" r:id="rId4"/>
     <sheet name="交割计算" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="交割成本" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="197">
   <si>
     <t>上海物通  玉米报价</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -617,19 +617,168 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>交割利润测算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货资金成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货资金成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金成本合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割费用合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准仓单成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>期货价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现货资金占用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金占用成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑点</t>
+    <t>交割利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他交割费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货2001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口平舱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货交割</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平舱费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前平舱价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货2005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货2005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴水</t>
+  </si>
+  <si>
+    <t>质检</t>
+  </si>
+  <si>
+    <t>损耗</t>
+  </si>
+  <si>
+    <t>汽车入库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车入库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货仓储天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货仓储天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货采购日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货交割日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货资金成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货资金成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货仓储费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货仓储费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割相关费用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -637,107 +786,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>购销价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现货价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现货保证金10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货与现货保证金占用时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交割利润测算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现货价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现货资金成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货资金成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金成本合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交割费用合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准仓单成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货价格</t>
+    <t>现货货款比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交割利润</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他交割费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货2001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>港口平舱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货交割</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>港口价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平舱费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前平舱价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货2005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +804,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +944,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -961,7 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1458,15 +1534,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,6 +1578,66 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1556,10 +1683,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1571,9 +1695,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,9 +1714,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1622,7 +1749,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1691,7 +1902,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1752,22 +1962,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-66</c:v>
+                  <c:v>-181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-76</c:v>
+                  <c:v>-191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-86</c:v>
+                  <c:v>-201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-96</c:v>
+                  <c:v>-211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-106</c:v>
+                  <c:v>-221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-116</c:v>
+                  <c:v>-231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,22 +1989,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0042852686696749E-3</c:v>
+                  <c:v>-5.1546190173462909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2541832331778028E-2</c:v>
+                  <c:v>-5.4811822883585881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0031925410631515E-2</c:v>
+                  <c:v>-5.8071534765660422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7474687062007658E-2</c:v>
+                  <c:v>-6.132534190743594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11487023942101944</c:v>
+                  <c:v>-6.457326033843092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14221870420292743</c:v>
+                  <c:v>-6.7815306030196192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,11 +2020,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1930291584"/>
-        <c:axId val="-1930286688"/>
+        <c:axId val="1454525552"/>
+        <c:axId val="1454528816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1930291584"/>
+        <c:axId val="1454525552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +2067,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1930286688"/>
+        <c:crossAx val="1454528816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1865,7 +2075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1930286688"/>
+        <c:axId val="1454528816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +2126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1930291584"/>
+        <c:crossAx val="1454525552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3080,55 +3290,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122">
         <f ca="1">TODAY()</f>
-        <v>43777</v>
-      </c>
-      <c r="H1" s="111"/>
+        <v>43839</v>
+      </c>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
@@ -3327,31 +3537,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="131">
         <v>43352</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="121" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -3360,15 +3570,15 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
@@ -3452,17 +3662,17 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -3630,23 +3840,23 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="71"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="71"/>
     </row>
   </sheetData>
@@ -3671,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -4227,33 +4437,33 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
       <c r="M18" s="10" t="s">
         <v>48</v>
       </c>
@@ -4632,8 +4842,8 @@
   </sheetPr>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4660,7 +4870,7 @@
       </c>
       <c r="D1" s="61">
         <f ca="1">TODAY()</f>
-        <v>43777</v>
+        <v>43839</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>116</v>
@@ -4676,9 +4886,9 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="134">
+      <c r="A2" s="146">
         <f ca="1">TODAY()</f>
-        <v>43777</v>
+        <v>43839</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>122</v>
@@ -4701,7 +4911,7 @@
       <c r="H2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="143" t="s">
         <v>107</v>
       </c>
       <c r="J2" s="45"/>
@@ -4725,7 +4935,7 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="134"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="70" t="s">
         <v>49</v>
       </c>
@@ -4734,8 +4944,8 @@
       <c r="E3" s="68"/>
       <c r="F3" s="72"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="132"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="59" t="s">
         <v>49</v>
       </c>
@@ -4754,10 +4964,10 @@
       <c r="O3" s="59">
         <v>1260</v>
       </c>
-      <c r="P3" s="125"/>
+      <c r="P3" s="140"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="134"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="70" t="s">
         <v>101</v>
       </c>
@@ -4776,8 +4986,8 @@
       <c r="G4" s="68">
         <v>1828</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="133"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="59" t="s">
         <v>101</v>
       </c>
@@ -4796,10 +5006,10 @@
       <c r="O4" s="59">
         <v>1570</v>
       </c>
-      <c r="P4" s="126"/>
+      <c r="P4" s="142"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="70" t="s">
@@ -4821,7 +5031,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="64"/>
-      <c r="I5" s="125" t="s">
+      <c r="I5" s="140" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="65" t="s">
@@ -4845,7 +5055,7 @@
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="135"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="70" t="s">
         <v>65</v>
       </c>
@@ -4869,8 +5079,8 @@
         <f>3+50</f>
         <v>53</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="130"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="141"/>
       <c r="J6" s="59" t="s">
         <v>65</v>
       </c>
@@ -4894,12 +5104,12 @@
         <f>50+5+6.7+5</f>
         <v>66.7</v>
       </c>
-      <c r="P6" s="127" t="s">
+      <c r="P6" s="137" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="135"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="70" t="s">
         <v>66</v>
       </c>
@@ -4918,8 +5128,8 @@
       <c r="G7" s="68">
         <v>130</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="130"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="141"/>
       <c r="J7" s="59" t="s">
         <v>66</v>
       </c>
@@ -4938,10 +5148,10 @@
       <c r="O7" s="59">
         <v>130</v>
       </c>
-      <c r="P7" s="128"/>
+      <c r="P7" s="138"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="135"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="48" t="s">
         <v>64</v>
       </c>
@@ -4965,8 +5175,8 @@
         <f>G4+G6+G7+G5</f>
         <v>2026</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="141"/>
       <c r="J8" s="48" t="s">
         <v>64</v>
       </c>
@@ -4990,10 +5200,10 @@
         <f>O4+O6+O7+O5</f>
         <v>1781.7</v>
       </c>
-      <c r="P8" s="129"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="135"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="70" t="s">
         <v>67</v>
       </c>
@@ -5016,8 +5226,8 @@
         <f>3+20+8.4+50</f>
         <v>81.400000000000006</v>
       </c>
-      <c r="H9" s="127"/>
-      <c r="I9" s="130"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="59" t="s">
         <v>67</v>
       </c>
@@ -5041,12 +5251,12 @@
         <f>50+27</f>
         <v>77</v>
       </c>
-      <c r="P9" s="127" t="s">
+      <c r="P9" s="137" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="135"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="70" t="s">
         <v>68</v>
       </c>
@@ -5065,8 +5275,8 @@
       <c r="G10" s="70">
         <v>75</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="130"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="59" t="s">
         <v>68</v>
       </c>
@@ -5085,10 +5295,10 @@
       <c r="O10" s="60">
         <v>80</v>
       </c>
-      <c r="P10" s="128"/>
+      <c r="P10" s="138"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="135"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="48" t="s">
         <v>69</v>
       </c>
@@ -5112,8 +5322,8 @@
         <f>G4+G9+G10+G5</f>
         <v>1999.4</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="141"/>
       <c r="J11" s="48" t="s">
         <v>69</v>
       </c>
@@ -5137,10 +5347,10 @@
         <f>O4+O9+O10+O5</f>
         <v>1742</v>
       </c>
-      <c r="P11" s="129"/>
+      <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="33">
-      <c r="A12" s="135"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="49" t="s">
         <v>62</v>
       </c>
@@ -5165,7 +5375,7 @@
         <v>1745</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="126"/>
+      <c r="I12" s="142"/>
       <c r="J12" s="49" t="s">
         <v>62</v>
       </c>
@@ -5189,7 +5399,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="136" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="70" t="s">
@@ -5210,8 +5420,8 @@
       <c r="G13" s="70">
         <v>4</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="135" t="s">
+      <c r="H13" s="137"/>
+      <c r="I13" s="136" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="59" t="s">
@@ -5232,12 +5442,12 @@
       <c r="O13" s="59">
         <v>4</v>
       </c>
-      <c r="P13" s="127" t="s">
+      <c r="P13" s="137" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="135"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="70" t="s">
         <v>53</v>
       </c>
@@ -5256,8 +5466,8 @@
       <c r="G14" s="70">
         <v>5</v>
       </c>
-      <c r="H14" s="128"/>
-      <c r="I14" s="135"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="136"/>
       <c r="J14" s="59" t="s">
         <v>53</v>
       </c>
@@ -5276,35 +5486,35 @@
       <c r="O14" s="59">
         <v>5</v>
       </c>
-      <c r="P14" s="128"/>
+      <c r="P14" s="138"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="135"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="70" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="50">
         <f ca="1">C4*0.1*($C$1-$D$1)/365</f>
-        <v>-85.097808219178091</v>
+        <v>-113.31205479452058</v>
       </c>
       <c r="D15" s="50">
         <f ca="1">D4*0.1*($C$1-$D$1)/365</f>
-        <v>-94.422191780821919</v>
+        <v>-125.72794520547946</v>
       </c>
       <c r="E15" s="50">
         <f ca="1">E4*0.1*($C$1-$D$1)/365</f>
-        <v>-91.706849315068496</v>
+        <v>-122.11232876712329</v>
       </c>
       <c r="F15" s="50">
         <f ca="1">F4*0.1*($C$1-$D$1)/365</f>
-        <v>-89.401369863013699</v>
+        <v>-119.04246575342465</v>
       </c>
       <c r="G15" s="50">
         <f ca="1">G4*0.1*($C$1-$D$1)/365</f>
-        <v>-93.653698630136986</v>
-      </c>
-      <c r="H15" s="128"/>
-      <c r="I15" s="135"/>
+        <v>-124.70465753424659</v>
+      </c>
+      <c r="H15" s="138"/>
+      <c r="I15" s="136"/>
       <c r="J15" s="59" t="s">
         <v>70</v>
       </c>
@@ -5328,35 +5538,35 @@
         <f>O4*0.1*2.5/12</f>
         <v>32.708333333333336</v>
       </c>
-      <c r="P15" s="128"/>
+      <c r="P15" s="138"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="135"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="70" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="50">
         <f ca="1">C26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="D16" s="50">
         <f ca="1">D26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="E16" s="50">
         <f ca="1">E26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="F16" s="50">
         <f ca="1">F26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="G16" s="50">
         <f ca="1">G26*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
-      </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="135"/>
+        <v>-24.640767123287674</v>
+      </c>
+      <c r="H16" s="138"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="59" t="s">
         <v>71</v>
       </c>
@@ -5380,35 +5590,35 @@
         <f>O26*0.2*0.1*2.5/12</f>
         <v>7.791666666666667</v>
       </c>
-      <c r="P16" s="128"/>
+      <c r="P16" s="138"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="135"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="50">
         <f ca="1">SUM(C13:C16)</f>
-        <v>-94.603123287671252</v>
+        <v>-128.95282191780825</v>
       </c>
       <c r="D17" s="50">
         <f ca="1">SUM(D13:D16)</f>
-        <v>-103.92750684931508</v>
+        <v>-141.36871232876712</v>
       </c>
       <c r="E17" s="50">
         <f ca="1">SUM(E13:E16)</f>
-        <v>-101.21216438356166</v>
+        <v>-137.75309589041098</v>
       </c>
       <c r="F17" s="50">
         <f ca="1">SUM(F13:F16)</f>
-        <v>-98.906684931506845</v>
+        <v>-134.68323287671234</v>
       </c>
       <c r="G17" s="50">
         <f ca="1">SUM(G13:G16)</f>
-        <v>-103.15901369863013</v>
-      </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="135"/>
+        <v>-140.34542465753427</v>
+      </c>
+      <c r="H17" s="139"/>
+      <c r="I17" s="136"/>
       <c r="J17" s="59" t="s">
         <v>54</v>
       </c>
@@ -5432,10 +5642,10 @@
         <f>SUM(O13:O16)</f>
         <v>49.5</v>
       </c>
-      <c r="P17" s="129"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="136" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="70" t="s">
@@ -5456,8 +5666,8 @@
       <c r="G18" s="70">
         <v>15</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="135" t="s">
+      <c r="H18" s="140"/>
+      <c r="I18" s="136" t="s">
         <v>61</v>
       </c>
       <c r="J18" s="59" t="s">
@@ -5478,10 +5688,10 @@
       <c r="O18" s="59">
         <v>15</v>
       </c>
-      <c r="P18" s="125"/>
+      <c r="P18" s="140"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="135"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="70" t="s">
         <v>63</v>
       </c>
@@ -5500,8 +5710,8 @@
       <c r="G19" s="70">
         <v>5</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="135"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="136"/>
       <c r="J19" s="59" t="s">
         <v>63</v>
       </c>
@@ -5520,10 +5730,10 @@
       <c r="O19" s="59">
         <v>5</v>
       </c>
-      <c r="P19" s="130"/>
+      <c r="P19" s="141"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="135"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="70" t="s">
         <v>55</v>
       </c>
@@ -5542,8 +5752,8 @@
       <c r="G20" s="70">
         <v>1</v>
       </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="135"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="136"/>
       <c r="J20" s="59" t="s">
         <v>55</v>
       </c>
@@ -5562,10 +5772,10 @@
       <c r="O20" s="59">
         <v>1</v>
       </c>
-      <c r="P20" s="130"/>
+      <c r="P20" s="141"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="135"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="70" t="s">
         <v>56</v>
       </c>
@@ -5584,8 +5794,8 @@
       <c r="G21" s="70">
         <v>1</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="135"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="136"/>
       <c r="J21" s="59" t="s">
         <v>56</v>
       </c>
@@ -5604,10 +5814,10 @@
       <c r="O21" s="59">
         <v>1</v>
       </c>
-      <c r="P21" s="130"/>
+      <c r="P21" s="141"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="135"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="70" t="s">
         <v>57</v>
       </c>
@@ -5626,8 +5836,8 @@
       <c r="G22" s="50">
         <v>0.15</v>
       </c>
-      <c r="H22" s="130"/>
-      <c r="I22" s="135"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="136"/>
       <c r="J22" s="59" t="s">
         <v>57</v>
       </c>
@@ -5646,10 +5856,10 @@
       <c r="O22" s="50">
         <v>0.15</v>
       </c>
-      <c r="P22" s="130"/>
+      <c r="P22" s="141"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="135"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="70" t="s">
         <v>58</v>
       </c>
@@ -5673,8 +5883,8 @@
         <f>SUM(G18:G22)</f>
         <v>22.15</v>
       </c>
-      <c r="H23" s="130"/>
-      <c r="I23" s="135"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="136"/>
       <c r="J23" s="59" t="s">
         <v>58</v>
       </c>
@@ -5698,35 +5908,35 @@
         <f>SUM(O18:O22)</f>
         <v>22.15</v>
       </c>
-      <c r="P23" s="130"/>
+      <c r="P23" s="141"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="135"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="52">
         <f ca="1">C23+C17+C8</f>
-        <v>1806.5468767123289</v>
+        <v>1772.1971780821918</v>
       </c>
       <c r="D24" s="52">
         <f ca="1">D23+D17+D8</f>
-        <v>1919.7224931506848</v>
+        <v>1882.2812876712328</v>
       </c>
       <c r="E24" s="52">
         <f ca="1">E23+E17+E8</f>
-        <v>1939.4378356164384</v>
+        <v>1902.8969041095891</v>
       </c>
       <c r="F24" s="52">
         <f ca="1">F23+F17+F8</f>
-        <v>1889.2433150684931</v>
+        <v>1853.4667671232876</v>
       </c>
       <c r="G24" s="52">
         <f ca="1">G23+G17+G8</f>
-        <v>1944.99098630137</v>
-      </c>
-      <c r="H24" s="130"/>
-      <c r="I24" s="135"/>
+        <v>1907.8045753424658</v>
+      </c>
+      <c r="H24" s="141"/>
+      <c r="I24" s="136"/>
       <c r="J24" s="51" t="s">
         <v>73</v>
       </c>
@@ -5750,35 +5960,35 @@
         <f>O23+O17+O8</f>
         <v>1853.3500000000001</v>
       </c>
-      <c r="P24" s="130"/>
+      <c r="P24" s="141"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="135"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="52">
         <f ca="1">C11+C17+C23+5</f>
-        <v>1826.5468767123289</v>
+        <v>1792.1971780821918</v>
       </c>
       <c r="D25" s="52">
         <f ca="1">D11+D17+D23+5</f>
-        <v>1867.2224931506851</v>
+        <v>1829.781287671233</v>
       </c>
       <c r="E25" s="52">
         <f ca="1">E11+E17+E23+5</f>
-        <v>1943.9378356164384</v>
+        <v>1907.3969041095891</v>
       </c>
       <c r="F25" s="52">
         <f ca="1">F11+F17+F23+5</f>
-        <v>1852.6433150684934</v>
+        <v>1816.8667671232879</v>
       </c>
       <c r="G25" s="52">
         <f ca="1">G11+G17+G23+5</f>
-        <v>1923.39098630137</v>
-      </c>
-      <c r="H25" s="130"/>
-      <c r="I25" s="135"/>
+        <v>1886.2045753424659</v>
+      </c>
+      <c r="H25" s="141"/>
+      <c r="I25" s="136"/>
       <c r="J25" s="51" t="s">
         <v>74</v>
       </c>
@@ -5802,10 +6012,10 @@
         <f>O11+O17+O23+5</f>
         <v>1818.65</v>
       </c>
-      <c r="P25" s="130"/>
+      <c r="P25" s="141"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="135"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="53" t="s">
         <v>59</v>
       </c>
@@ -5829,8 +6039,8 @@
         <f>$H$1</f>
         <v>1806</v>
       </c>
-      <c r="H26" s="130"/>
-      <c r="I26" s="135"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="136"/>
       <c r="J26" s="53" t="s">
         <v>59</v>
       </c>
@@ -5849,35 +6059,35 @@
       <c r="O26" s="53">
         <v>1870</v>
       </c>
-      <c r="P26" s="130"/>
+      <c r="P26" s="141"/>
     </row>
     <row r="27" spans="1:16" ht="21">
-      <c r="A27" s="135"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="54" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="55">
         <f ca="1">C26-C25</f>
-        <v>-20.546876712328867</v>
+        <v>13.80282191780816</v>
       </c>
       <c r="D27" s="55">
         <f ca="1">D26-D25</f>
-        <v>-61.222493150685068</v>
+        <v>-23.781287671233031</v>
       </c>
       <c r="E27" s="55">
         <f ca="1">E26-E25</f>
-        <v>-137.93783561643841</v>
+        <v>-101.39690410958906</v>
       </c>
       <c r="F27" s="55">
         <f ca="1">F26-F25</f>
-        <v>-46.643315068493393</v>
+        <v>-10.8667671232879</v>
       </c>
       <c r="G27" s="55">
         <f ca="1">G26-G25</f>
-        <v>-117.39098630137005</v>
-      </c>
-      <c r="H27" s="126"/>
-      <c r="I27" s="135"/>
+        <v>-80.204575342465887</v>
+      </c>
+      <c r="H27" s="142"/>
+      <c r="I27" s="136"/>
       <c r="J27" s="54" t="s">
         <v>60</v>
       </c>
@@ -5901,7 +6111,7 @@
         <f>O26-O24</f>
         <v>16.649999999999864</v>
       </c>
-      <c r="P27" s="126"/>
+      <c r="P27" s="142"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="56" t="s">
@@ -5919,9 +6129,9 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="131">
+      <c r="A31" s="143">
         <f ca="1">TODAY()</f>
-        <v>43777</v>
+        <v>43839</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="62" t="s">
@@ -5942,7 +6152,7 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="132"/>
+      <c r="A32" s="144"/>
       <c r="B32" s="9" t="s">
         <v>79</v>
       </c>
@@ -5961,12 +6171,12 @@
       <c r="G32" s="9">
         <v>1260</v>
       </c>
-      <c r="H32" s="125" t="s">
+      <c r="H32" s="140" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="133"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -5985,10 +6195,10 @@
       <c r="G33" s="9">
         <v>1570</v>
       </c>
-      <c r="H33" s="126"/>
+      <c r="H33" s="142"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="140" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -6013,12 +6223,12 @@
       <c r="G34" s="9">
         <v>20</v>
       </c>
-      <c r="H34" s="127" t="s">
+      <c r="H34" s="137" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="130"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="9" t="s">
         <v>81</v>
       </c>
@@ -6037,10 +6247,10 @@
       <c r="G35" s="9">
         <v>150</v>
       </c>
-      <c r="H35" s="128"/>
+      <c r="H35" s="138"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="130"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="9" t="s">
         <v>82</v>
       </c>
@@ -6059,10 +6269,10 @@
       <c r="G36" s="9">
         <v>15</v>
       </c>
-      <c r="H36" s="128"/>
+      <c r="H36" s="138"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="130"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="48" t="s">
         <v>98</v>
       </c>
@@ -6086,10 +6296,10 @@
         <f>G33+G34+G35+G36</f>
         <v>1755</v>
       </c>
-      <c r="H37" s="129"/>
+      <c r="H37" s="139"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="126"/>
+      <c r="A38" s="142"/>
       <c r="B38" s="49" t="s">
         <v>99</v>
       </c>
@@ -6118,7 +6328,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="140" t="s">
         <v>96</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -6139,12 +6349,12 @@
       <c r="G39" s="9">
         <v>4</v>
       </c>
-      <c r="H39" s="127" t="s">
+      <c r="H39" s="137" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="130"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="9" t="s">
         <v>84</v>
       </c>
@@ -6163,91 +6373,91 @@
       <c r="G40" s="9">
         <v>5</v>
       </c>
-      <c r="H40" s="128"/>
+      <c r="H40" s="138"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="130"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="50">
         <f ca="1">C33*0.1*($C$1-$D$1)/365</f>
-        <v>-84.534246575342465</v>
+        <v>-112.56164383561644</v>
       </c>
       <c r="D41" s="50">
         <f ca="1">D33*0.1*($C$1-$D$1)/365</f>
-        <v>-91.399452054794523</v>
+        <v>-121.70301369863013</v>
       </c>
       <c r="E41" s="50">
         <f ca="1">E33*0.1*($C$1-$D$1)/365</f>
-        <v>-87.608219178082194</v>
+        <v>-116.65479452054795</v>
       </c>
       <c r="F41" s="50">
         <f ca="1">F33*0.1*($C$1-$D$1)/365</f>
-        <v>-88.632876712328766</v>
+        <v>-118.01917808219179</v>
       </c>
       <c r="G41" s="50">
         <f ca="1">G33*0.1*($C$1-$D$1)/365</f>
-        <v>-80.435616438356163</v>
-      </c>
-      <c r="H41" s="128"/>
+        <v>-107.1041095890411</v>
+      </c>
+      <c r="H41" s="138"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="130"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="50">
         <f ca="1">C51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="D42" s="50">
         <f ca="1">D51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="E42" s="50">
         <f ca="1">E51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="F42" s="50">
         <f ca="1">F51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
+        <v>-24.640767123287674</v>
       </c>
       <c r="G42" s="50">
         <f ca="1">G51*0.2*0.1*($C$1-$D$1)/365</f>
-        <v>-18.505315068493154</v>
-      </c>
-      <c r="H42" s="128"/>
+        <v>-24.640767123287674</v>
+      </c>
+      <c r="H42" s="138"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="126"/>
+      <c r="A43" s="142"/>
       <c r="B43" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="50">
         <f ca="1">SUM(C39:C42)</f>
-        <v>-94.039561643835611</v>
+        <v>-128.20241095890412</v>
       </c>
       <c r="D43" s="50">
         <f ca="1">SUM(D39:D42)</f>
-        <v>-100.90476712328768</v>
+        <v>-137.34378082191779</v>
       </c>
       <c r="E43" s="50">
         <f ca="1">SUM(E39:E42)</f>
-        <v>-97.113534246575341</v>
+        <v>-132.29556164383564</v>
       </c>
       <c r="F43" s="50">
         <f ca="1">SUM(F39:F42)</f>
-        <v>-98.138191780821927</v>
+        <v>-133.65994520547946</v>
       </c>
       <c r="G43" s="50">
         <f ca="1">SUM(G39:G42)</f>
-        <v>-89.940931506849324</v>
-      </c>
-      <c r="H43" s="129"/>
+        <v>-122.74487671232878</v>
+      </c>
+      <c r="H43" s="139"/>
     </row>
     <row r="44" spans="1:8" hidden="1">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="140" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -6268,10 +6478,10 @@
       <c r="G44" s="9">
         <v>20</v>
       </c>
-      <c r="H44" s="125"/>
+      <c r="H44" s="140"/>
     </row>
     <row r="45" spans="1:8" hidden="1">
-      <c r="A45" s="130"/>
+      <c r="A45" s="141"/>
       <c r="B45" s="9" t="s">
         <v>87</v>
       </c>
@@ -6290,10 +6500,10 @@
       <c r="G45" s="9">
         <v>5</v>
       </c>
-      <c r="H45" s="130"/>
+      <c r="H45" s="141"/>
     </row>
     <row r="46" spans="1:8" hidden="1">
-      <c r="A46" s="130"/>
+      <c r="A46" s="141"/>
       <c r="B46" s="9" t="s">
         <v>88</v>
       </c>
@@ -6312,10 +6522,10 @@
       <c r="G46" s="9">
         <v>1</v>
       </c>
-      <c r="H46" s="130"/>
+      <c r="H46" s="141"/>
     </row>
     <row r="47" spans="1:8" hidden="1">
-      <c r="A47" s="130"/>
+      <c r="A47" s="141"/>
       <c r="B47" s="9" t="s">
         <v>89</v>
       </c>
@@ -6334,10 +6544,10 @@
       <c r="G47" s="9">
         <v>1</v>
       </c>
-      <c r="H47" s="130"/>
+      <c r="H47" s="141"/>
     </row>
     <row r="48" spans="1:8" hidden="1">
-      <c r="A48" s="130"/>
+      <c r="A48" s="141"/>
       <c r="B48" s="9" t="s">
         <v>90</v>
       </c>
@@ -6356,10 +6566,10 @@
       <c r="G48" s="9">
         <v>0.2</v>
       </c>
-      <c r="H48" s="130"/>
+      <c r="H48" s="141"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="130"/>
+      <c r="A49" s="141"/>
       <c r="B49" s="9" t="s">
         <v>93</v>
       </c>
@@ -6383,37 +6593,37 @@
         <f>SUM(G44:G48)</f>
         <v>27.2</v>
       </c>
-      <c r="H49" s="130"/>
+      <c r="H49" s="141"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="130"/>
+      <c r="A50" s="141"/>
       <c r="B50" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="52">
         <f ca="1">C37+C43+C49</f>
-        <v>1770.1604383561644</v>
+        <v>1735.9975890410958</v>
       </c>
       <c r="D50" s="52">
         <f ca="1">D37+D43+D49</f>
-        <v>1835.7952328767124</v>
+        <v>1799.3562191780823</v>
       </c>
       <c r="E50" s="52">
         <f ca="1">E37+E43+E49</f>
-        <v>1868.0864657534246</v>
+        <v>1832.9044383561643</v>
       </c>
       <c r="F50" s="52">
         <f ca="1">F37+F43+F49</f>
-        <v>1838.4618082191782</v>
+        <v>1802.9400547945206</v>
       </c>
       <c r="G50" s="52">
         <f ca="1">G37+G43+G49</f>
-        <v>1692.2590684931508</v>
-      </c>
-      <c r="H50" s="130"/>
+        <v>1659.4551232876713</v>
+      </c>
+      <c r="H50" s="141"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="130"/>
+      <c r="A51" s="141"/>
       <c r="B51" s="53" t="s">
         <v>59</v>
       </c>
@@ -6437,37 +6647,54 @@
         <f>$H$1</f>
         <v>1806</v>
       </c>
-      <c r="H51" s="130"/>
+      <c r="H51" s="141"/>
     </row>
     <row r="52" spans="1:8" ht="21">
-      <c r="A52" s="126"/>
+      <c r="A52" s="142"/>
       <c r="B52" s="54" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="55">
         <f ca="1">C51-C50</f>
-        <v>35.839561643835623</v>
+        <v>70.002410958904193</v>
       </c>
       <c r="D52" s="55">
         <f ca="1">D51-D50</f>
-        <v>-29.795232876712362</v>
+        <v>6.6437808219177441</v>
       </c>
       <c r="E52" s="55">
         <f ca="1">E51-E50</f>
-        <v>-62.086465753424591</v>
+        <v>-26.904438356164292</v>
       </c>
       <c r="F52" s="55">
         <f ca="1">F51-F50</f>
-        <v>-32.461808219178238</v>
+        <v>3.0599452054793801</v>
       </c>
       <c r="G52" s="55">
         <f ca="1">G51-G50</f>
-        <v>113.74093150684917</v>
-      </c>
-      <c r="H52" s="126"/>
+        <v>146.54487671232869</v>
+      </c>
+      <c r="H52" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A5:A12"/>
     <mergeCell ref="I13:I17"/>
     <mergeCell ref="P13:P17"/>
     <mergeCell ref="I18:I27"/>
@@ -6477,23 +6704,6 @@
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="P9:P11"/>
     <mergeCell ref="I5:I12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6505,8 +6715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6521,17 +6731,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="141"/>
+      <c r="B1" s="152"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="74" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="75">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6540,11 +6750,14 @@
       </c>
       <c r="B3" s="74">
         <f ca="1">MIN(B7-B6-5,MAX(20,(B7-B6)/2))</f>
-        <v>28.5</v>
+        <v>-10</v>
       </c>
       <c r="C3" s="10">
         <f ca="1">MIN(C7-B6-5,MAX(20,(C7-B6)/2))</f>
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6561,11 +6774,11 @@
       </c>
       <c r="B5" s="74">
         <f ca="1">B7-B6</f>
-        <v>57</v>
+        <v>-5</v>
       </c>
       <c r="C5" s="10">
         <f ca="1">C7-B6</f>
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="D5" s="73"/>
       <c r="F5" s="73"/>
@@ -6576,7 +6789,7 @@
       </c>
       <c r="B6" s="80">
         <f ca="1">TODAY()+1</f>
-        <v>43778</v>
+        <v>43840</v>
       </c>
       <c r="D6" s="73"/>
       <c r="F6" s="73"/>
@@ -6588,7 +6801,7 @@
       <c r="B7" s="80">
         <v>43835</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="91">
         <v>43956</v>
       </c>
       <c r="D7" s="73"/>
@@ -6598,15 +6811,15 @@
       <c r="A8" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="104">
-        <v>1920</v>
+      <c r="B8" s="95">
+        <v>1805</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="95">
         <v>1986</v>
       </c>
       <c r="C9" s="10">
@@ -6635,7 +6848,7 @@
       <c r="B10" s="79"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="149" t="s">
         <v>132</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -6661,7 +6874,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="139"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="18" t="s">
         <v>134</v>
       </c>
@@ -6685,7 +6898,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="139"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="18" t="s">
         <v>135</v>
       </c>
@@ -6709,67 +6922,67 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="139"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="78">
         <f>$B$8*0.002</f>
-        <v>3.84</v>
+        <v>3.61</v>
       </c>
       <c r="D14" s="78">
         <f t="shared" ref="D14:H14" si="1">$B$8*0.002</f>
-        <v>3.84</v>
+        <v>3.61</v>
       </c>
       <c r="E14" s="78">
         <f t="shared" si="1"/>
-        <v>3.84</v>
+        <v>3.61</v>
       </c>
       <c r="F14" s="78">
         <f t="shared" si="1"/>
-        <v>3.84</v>
+        <v>3.61</v>
       </c>
       <c r="G14" s="78">
         <f t="shared" si="1"/>
-        <v>3.84</v>
+        <v>3.61</v>
       </c>
       <c r="H14" s="78">
         <f t="shared" si="1"/>
-        <v>3.84</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="139"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="18" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="19">
         <f ca="1">$B$3*0.2+$B$4*0.5</f>
-        <v>8.1999999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="19">
         <f t="shared" ref="D15:H15" ca="1" si="2">$B$3*0.2+$B$4*0.5</f>
-        <v>8.1999999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="139"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="18" t="s">
         <v>56</v>
       </c>
@@ -6793,37 +7006,37 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="140"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="81">
         <f ca="1">SUM(C11:C16)</f>
-        <v>35.24</v>
+        <v>27.31</v>
       </c>
       <c r="D17" s="81">
         <f t="shared" ref="D17:H17" ca="1" si="3">SUM(D11:D16)</f>
-        <v>35.24</v>
+        <v>27.31</v>
       </c>
       <c r="E17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>35.24</v>
+        <v>27.31</v>
       </c>
       <c r="F17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>35.24</v>
+        <v>27.31</v>
       </c>
       <c r="G17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>35.24</v>
+        <v>27.31</v>
       </c>
       <c r="H17" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>35.24</v>
+        <v>27.31</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="149" t="s">
         <v>137</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -6831,437 +7044,478 @@
       </c>
       <c r="C18" s="77">
         <f ca="1">B9*0.2*$B$2*$B$5/365</f>
-        <v>4.962279452054795</v>
+        <v>-0.3264657534246575</v>
       </c>
       <c r="D18" s="77">
         <f t="shared" ref="D18:H18" ca="1" si="4">C9*0.2*$B$2*$B$5/365</f>
-        <v>4.9872657534246576</v>
+        <v>-0.32810958904109588</v>
       </c>
       <c r="E18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0122520547945211</v>
+        <v>-0.32975342465753427</v>
       </c>
       <c r="F18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0372383561643845</v>
+        <v>-0.33139726027397265</v>
       </c>
       <c r="G18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0622246575342471</v>
+        <v>-0.33304109589041098</v>
       </c>
       <c r="H18" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0872109589041106</v>
+        <v>-0.33468493150684936</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="139"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="18" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="78">
         <f ca="1">$B$8*$B$2*$B$5/365</f>
-        <v>23.98684931506849</v>
+        <v>-1.4835616438356165</v>
       </c>
       <c r="D19" s="78">
         <f t="shared" ref="D19:H19" ca="1" si="5">$B$8*$B$2*$B$5/365</f>
-        <v>23.98684931506849</v>
+        <v>-1.4835616438356165</v>
       </c>
       <c r="E19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>23.98684931506849</v>
+        <v>-1.4835616438356165</v>
       </c>
       <c r="F19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>23.98684931506849</v>
+        <v>-1.4835616438356165</v>
       </c>
       <c r="G19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>23.98684931506849</v>
+        <v>-1.4835616438356165</v>
       </c>
       <c r="H19" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>23.98684931506849</v>
+        <v>-1.4835616438356165</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="140"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="24" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="81">
         <f ca="1">SUM(C18:C19)</f>
-        <v>28.949128767123284</v>
+        <v>-1.8100273972602741</v>
       </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:H20" ca="1" si="6">SUM(D18:D19)</f>
-        <v>28.974115068493148</v>
+        <v>-1.8116712328767124</v>
       </c>
       <c r="E20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>28.999101369863013</v>
+        <v>-1.8133150684931507</v>
       </c>
       <c r="F20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>29.024087671232873</v>
+        <v>-1.8149589041095893</v>
       </c>
       <c r="G20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>29.049073972602738</v>
+        <v>-1.8166027397260276</v>
       </c>
       <c r="H20" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>29.074060273972599</v>
+        <v>-1.8182465753424659</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="81">
         <f ca="1">C20+C17</f>
-        <v>64.189128767123293</v>
+        <v>25.499972602739724</v>
       </c>
       <c r="D21" s="81">
         <f t="shared" ref="D21:H21" ca="1" si="7">D20+D17</f>
-        <v>64.214115068493157</v>
+        <v>25.498328767123287</v>
       </c>
       <c r="E21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>64.239101369863022</v>
+        <v>25.496684931506849</v>
       </c>
       <c r="F21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>64.264087671232872</v>
+        <v>25.495041095890411</v>
       </c>
       <c r="G21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>64.289073972602736</v>
+        <v>25.493397260273973</v>
       </c>
       <c r="H21" s="81">
         <f t="shared" ca="1" si="7"/>
-        <v>64.314060273972601</v>
+        <v>25.491753424657531</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="144"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="77">
         <f ca="1">B9-$B$8-C21</f>
-        <v>1.8108712328767069</v>
+        <v>155.50002739726028</v>
       </c>
       <c r="D22" s="77">
         <f t="shared" ref="D22:H22" ca="1" si="8">C9-$B$8-D21</f>
-        <v>11.785884931506843</v>
+        <v>165.5016712328767</v>
       </c>
       <c r="E22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>21.760898630136978</v>
+        <v>175.50331506849315</v>
       </c>
       <c r="F22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>31.735912328767128</v>
+        <v>185.5049589041096</v>
       </c>
       <c r="G22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>41.710926027397264</v>
+        <v>195.50660273972602</v>
       </c>
       <c r="H22" s="77">
         <f t="shared" ca="1" si="8"/>
-        <v>51.685939726027399</v>
+        <v>205.50824657534247</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="137"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="82">
         <f>$B$8+B9*0.2</f>
-        <v>2317.1999999999998</v>
+        <v>2202.1999999999998</v>
       </c>
       <c r="D23" s="82">
         <f t="shared" ref="D23:H23" si="9">$B$8+C9*0.2</f>
-        <v>2319.1999999999998</v>
+        <v>2204.1999999999998</v>
       </c>
       <c r="E23" s="82">
         <f t="shared" si="9"/>
-        <v>2321.1999999999998</v>
+        <v>2206.1999999999998</v>
       </c>
       <c r="F23" s="82">
         <f t="shared" si="9"/>
-        <v>2323.1999999999998</v>
+        <v>2208.1999999999998</v>
       </c>
       <c r="G23" s="82">
         <f t="shared" si="9"/>
-        <v>2325.1999999999998</v>
+        <v>2210.1999999999998</v>
       </c>
       <c r="H23" s="82">
         <f t="shared" si="9"/>
-        <v>2327.1999999999998</v>
+        <v>2212.1999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="146"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="83">
         <f ca="1">C22/C23/$B$5*365</f>
-        <v>5.0042852686696749E-3</v>
+        <v>-5.1546190173462909</v>
       </c>
       <c r="D24" s="83">
         <f t="shared" ref="D24:H24" ca="1" si="10">D22/D23/$B$5*365</f>
-        <v>3.2541832331778028E-2</v>
+        <v>-5.4811822883585881</v>
       </c>
       <c r="E24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>6.0031925410631515E-2</v>
+        <v>-5.8071534765660422</v>
       </c>
       <c r="F24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>8.7474687062007658E-2</v>
+        <v>-6.132534190743594</v>
       </c>
       <c r="G24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11487023942101944</v>
+        <v>-6.457326033843092</v>
       </c>
       <c r="H24" s="83">
         <f t="shared" ca="1" si="10"/>
-        <v>0.14221870420292743</v>
+        <v>-6.7815306030196192</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="137"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="84">
         <f>$B$8-B9</f>
-        <v>-66</v>
+        <v>-181</v>
       </c>
       <c r="D25" s="84">
         <f t="shared" ref="D25:H25" si="11">$B$8-C9</f>
-        <v>-76</v>
+        <v>-191</v>
       </c>
       <c r="E25" s="84">
         <f t="shared" si="11"/>
-        <v>-86</v>
+        <v>-201</v>
       </c>
       <c r="F25" s="84">
         <f t="shared" si="11"/>
-        <v>-96</v>
+        <v>-211</v>
       </c>
       <c r="G25" s="84">
         <f t="shared" si="11"/>
-        <v>-106</v>
+        <v>-221</v>
       </c>
       <c r="H25" s="84">
         <f t="shared" si="11"/>
-        <v>-116</v>
+        <v>-231</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75">
-      <c r="A29" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="J29" s="108" t="s">
+      <c r="A29" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="108" t="s">
-        <v>175</v>
+      <c r="J29" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="99" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
-      <c r="A30" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="94">
-        <v>1830</v>
-      </c>
-      <c r="C30" s="94">
-        <v>1830</v>
-      </c>
-      <c r="J30" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="K30" s="105">
+      <c r="A30" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="85">
+        <v>1820</v>
+      </c>
+      <c r="C30" s="85">
+        <v>1780</v>
+      </c>
+      <c r="D30" s="103">
+        <v>1805</v>
+      </c>
+      <c r="J30" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="96">
         <v>1870</v>
       </c>
-      <c r="L30" s="105">
+      <c r="L30" s="96">
         <v>1870</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75">
-      <c r="A31" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="99">
+      <c r="A31" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="90">
         <f ca="1">$B$8*$B$2*$B$5/365</f>
-        <v>23.98684931506849</v>
-      </c>
-      <c r="C31" s="99">
+        <v>-1.4835616438356165</v>
+      </c>
+      <c r="C31" s="90">
         <f ca="1">$B$8*$B$2*$C$5/365</f>
-        <v>74.906301369863016</v>
-      </c>
-      <c r="J31" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" s="105">
+        <v>34.418630136986302</v>
+      </c>
+      <c r="D31" s="104">
+        <f ca="1">$B$8*$B$2*$C$5/365</f>
+        <v>34.418630136986302</v>
+      </c>
+      <c r="J31" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="96">
         <v>40</v>
       </c>
-      <c r="L31" s="105">
+      <c r="L31" s="96">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18.75">
-      <c r="A32" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="99">
+      <c r="A32" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="90">
         <f ca="1">B38*0.2*$B$2*$B$5/365</f>
-        <v>4.6799342465753426</v>
-      </c>
-      <c r="C32" s="99">
+        <v>-0.29983561643835616</v>
+      </c>
+      <c r="C32" s="90">
         <f ca="1">C38*0.2*$B$2*$C$5/365</f>
-        <v>15.230947945205481</v>
-      </c>
-      <c r="J32" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105">
+        <v>7.2307726027397274</v>
+      </c>
+      <c r="D32" s="104">
+        <f ca="1">D38*0.2*$B$2*$C$5/365</f>
+        <v>7.2345863013698635</v>
+      </c>
+      <c r="J32" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75">
-      <c r="A33" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="102">
+      <c r="A33" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="93">
         <f ca="1">B32+B31</f>
-        <v>28.666783561643832</v>
-      </c>
-      <c r="C33" s="102">
+        <v>-1.7833972602739727</v>
+      </c>
+      <c r="C33" s="93">
         <f ca="1">C32+C31</f>
-        <v>90.137249315068502</v>
-      </c>
-      <c r="J33" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105">
+        <v>41.649402739726028</v>
+      </c>
+      <c r="D33" s="104">
+        <f ca="1">D32+D31</f>
+        <v>41.653216438356168</v>
+      </c>
+      <c r="J33" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96">
         <f>L30*0.06*0.5/12</f>
         <v>4.6749999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18.75">
-      <c r="A34" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="94">
+      <c r="A34" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="85">
         <f ca="1">$B$3*0.2+$B$4*0.5</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C34" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="85">
         <f ca="1">$C$3*0.2+$B$4*0.6</f>
-        <v>20.8</v>
-      </c>
-      <c r="J34" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="K34" s="105">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="D34" s="103">
+        <f>$D$3*0.1+$B$4*0.5</f>
+        <v>11.5</v>
+      </c>
+      <c r="J34" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="96">
         <f>SUM(K30:K33)</f>
         <v>1910</v>
       </c>
-      <c r="L34" s="106">
+      <c r="L34" s="97">
         <f>SUM(L30:L33)</f>
         <v>1931.675</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75">
-      <c r="A35" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="147">
+      <c r="A35" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="101">
         <f>$C$11+$C$12+$C$13+$C$14+$C$16</f>
-        <v>27.04</v>
-      </c>
-      <c r="C35" s="94">
+        <v>26.81</v>
+      </c>
+      <c r="C35" s="85">
         <f>$C$11+$C$12+$C$13+$C$14+$C$16</f>
-        <v>27.04</v>
-      </c>
-      <c r="J35" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="K35" s="109">
+        <v>26.81</v>
+      </c>
+      <c r="D35" s="103">
+        <f>$C$11+$C$12+$C$13+$C$14+$C$16</f>
+        <v>26.81</v>
+      </c>
+      <c r="J35" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" s="100">
         <v>1910</v>
       </c>
-      <c r="L35" s="109"/>
+      <c r="L35" s="100"/>
     </row>
     <row r="36" spans="1:12" ht="18.75">
-      <c r="A36" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="101">
+      <c r="A36" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="92">
         <f ca="1">B35+B34</f>
-        <v>35.239999999999995</v>
-      </c>
-      <c r="C36" s="97">
+        <v>27.31</v>
+      </c>
+      <c r="C36" s="88">
         <f ca="1">C35+C34</f>
-        <v>47.84</v>
-      </c>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
+        <v>41.41</v>
+      </c>
+      <c r="D36" s="103">
+        <f>D35+D34</f>
+        <v>38.31</v>
+      </c>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
     </row>
     <row r="37" spans="1:12" ht="18.75">
-      <c r="A37" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="103">
+      <c r="A37" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="94">
         <f ca="1">B30+B33+B36</f>
-        <v>1893.9067835616438</v>
-      </c>
-      <c r="C37" s="103">
+        <v>1845.5266027397261</v>
+      </c>
+      <c r="C37" s="94">
         <f ca="1">C30+C33+C36</f>
-        <v>1967.9772493150683</v>
+        <v>1863.059402739726</v>
+      </c>
+      <c r="D37" s="105">
+        <f ca="1">D30+D33+D36</f>
+        <v>1884.9632164383561</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75">
-      <c r="A38" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="94">
-        <v>1873</v>
-      </c>
-      <c r="C38" s="94">
-        <v>1952</v>
+      <c r="A38" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="85">
+        <v>1824</v>
+      </c>
+      <c r="C38" s="85">
+        <v>1896</v>
+      </c>
+      <c r="D38" s="103">
+        <v>1897</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75">
-      <c r="A39" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="103">
+      <c r="A39" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="94">
         <f ca="1">B38-B37</f>
-        <v>-20.906783561643806</v>
-      </c>
-      <c r="C39" s="103">
+        <v>-21.526602739726059</v>
+      </c>
+      <c r="C39" s="94">
         <f ca="1">C38-C37</f>
-        <v>-15.97724931506832</v>
+        <v>32.940597260273989</v>
+      </c>
+      <c r="D39" s="105">
+        <f ca="1">D38-D37</f>
+        <v>12.036783561643915</v>
       </c>
     </row>
   </sheetData>
@@ -7284,102 +7538,262 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:F11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="112" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="112" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="112" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6">
-      <c r="E1" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="86">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="2" spans="5:6">
-      <c r="E2" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="88">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="3" spans="5:6">
-      <c r="E3" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="88">
-        <f>F5*10%</f>
+    <row r="1" spans="1:4">
+      <c r="A1" s="113" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="5:6">
-      <c r="E4" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="88">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="5:6">
-      <c r="E5" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="88">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="6" spans="5:6">
-      <c r="E6" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="90">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="92">
-        <f>F2*0.2*F1*F4/365+F5*0.9*F1*F6/365+F3*F1*F4/365</f>
-        <v>54.278136986301369</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="91">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="91">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="93">
-        <f>F2-F8-F9-F10</f>
-        <v>1781.7218630136986</v>
-      </c>
+      <c r="B1" s="106">
+        <v>15</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="108">
+        <v>5</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="109">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="108">
+        <v>2</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="119">
+        <f ca="1">C7-C6-D4</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="108">
+        <v>3.84</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="111">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="120">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="178"/>
+      <c r="C6" s="181">
+        <f ca="1">TODAY()</f>
+        <v>43839</v>
+      </c>
+      <c r="D6" s="182"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="173" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="183">
+        <v>43956</v>
+      </c>
+      <c r="D7" s="184"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="178"/>
+      <c r="C8" s="185">
+        <v>1810</v>
+      </c>
+      <c r="D8" s="186"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175">
+        <v>1919</v>
+      </c>
+      <c r="D9" s="176"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="178"/>
+      <c r="C10" s="179">
+        <f ca="1">C8*D5*D2*(D3+D4)/365</f>
+        <v>27.849205479452053</v>
+      </c>
+      <c r="D10" s="180"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="164" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="165"/>
+      <c r="C11" s="168">
+        <f ca="1">C9*0.2*D2*(D3+D4)/365</f>
+        <v>7.3815780821917807</v>
+      </c>
+      <c r="D11" s="169"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="162" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="163"/>
+      <c r="C12" s="166">
+        <f ca="1">C11+C10</f>
+        <v>35.230783561643833</v>
+      </c>
+      <c r="D12" s="167"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="164" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="165"/>
+      <c r="C13" s="168">
+        <f ca="1">(D3-30)*0.1</f>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="D13" s="169"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="164" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="165"/>
+      <c r="C14" s="168">
+        <f>D4*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="169"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="163"/>
+      <c r="C15" s="170">
+        <f ca="1">SUM(C13:D14)</f>
+        <v>10.700000000000001</v>
+      </c>
+      <c r="D15" s="171"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="164" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165">
+        <f>B1+B2+B3+B4+B5</f>
+        <v>27.04</v>
+      </c>
+      <c r="D16" s="172"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="158" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160">
+        <f ca="1">C8+C12+C15+C16</f>
+        <v>1882.9707835616439</v>
+      </c>
+      <c r="D17" s="161"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160">
+        <f ca="1">C9-C17</f>
+        <v>36.029216438356116</v>
+      </c>
+      <c r="D18" s="161"/>
     </row>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
